--- a/resources/Symbiont_Characterization_Examples.xlsx
+++ b/resources/Symbiont_Characterization_Examples.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeconnelly/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecilymartin/Documents/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF0EEAF-5A01-7142-800C-E09968D494A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C5E5FE2-D5A1-6D4A-A90D-5D4FEF00122C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="14760" xr2:uid="{00FB221B-6EB3-AF46-B8AB-DE0ED06E3E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Study</t>
   </si>
@@ -153,13 +153,16 @@
   </si>
   <si>
     <t>0 - 60</t>
+  </si>
+  <si>
+    <t>0-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,10 +212,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,11 +534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4286C157-D078-374C-BE50-1BBE627459CF}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -537,7 +547,7 @@
     <col min="6" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -586,7 +596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -601,7 +611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -627,7 +637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -650,7 +660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -676,12 +686,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
